--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/20/seed3/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.124</v>
+        <v>-12.632</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -508,7 +508,7 @@
         <v>-11.8</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.989999999999999</v>
+        <v>-8.063000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -544,13 +544,13 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>4.806</v>
+        <v>5.369999999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.778</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="9">
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.472</v>
+        <v>6.052</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.832</v>
+        <v>-12.312</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -600,13 +600,13 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.76</v>
+        <v>5.356999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.268</v>
+        <v>-11.659</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.686</v>
+        <v>-7.629</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.234</v>
+        <v>-7.677000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -645,10 +645,10 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14</v>
+        <v>-13.685</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.582000000000001</v>
+        <v>-8.078999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.656</v>
+        <v>-13.271</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.226</v>
+        <v>5.241</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.858000000000001</v>
+        <v>-7.713000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +782,13 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.6</v>
+        <v>5.340999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.220000000000001</v>
+        <v>-7.51</v>
       </c>
     </row>
     <row r="26">
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.558</v>
+        <v>-12.545</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-11.684</v>
+        <v>-12.661</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.276</v>
+        <v>-12.418</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -883,10 +883,10 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.016</v>
+        <v>-11.726</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.374000000000001</v>
+        <v>-7.331999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.702000000000001</v>
+        <v>-7.327</v>
       </c>
     </row>
     <row r="37">
@@ -950,10 +950,10 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.356</v>
+        <v>8.398</v>
       </c>
       <c r="C37" t="n">
-        <v>-11.978</v>
+        <v>-11.862</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.824000000000001</v>
+        <v>-7.795</v>
       </c>
     </row>
     <row r="39">
@@ -1009,10 +1009,10 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.03</v>
+        <v>-12.06</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.608</v>
+        <v>-8.164000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.542</v>
+        <v>-12.608</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1138,7 +1138,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-7.814</v>
+        <v>-7.975</v>
       </c>
     </row>
     <row r="51">
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.798</v>
+        <v>-12.916</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.234</v>
+        <v>-8.077999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.095999999999999</v>
+        <v>4.864999999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-7.184</v>
+        <v>-7.722000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.976</v>
+        <v>-12.161</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-8.102</v>
+        <v>-7.767</v>
       </c>
     </row>
     <row r="68">
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.712000000000001</v>
+        <v>4.755</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.47</v>
+        <v>-12.347</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>6.708</v>
+        <v>6.433</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>7.898000000000001</v>
+        <v>8.016999999999999</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>4.678</v>
+        <v>5.846</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>7.592000000000001</v>
+        <v>8.204000000000001</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.946</v>
+        <v>6.187</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.514000000000001</v>
+        <v>5.579</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1608,13 +1608,13 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.274</v>
+        <v>5.584000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.12</v>
+        <v>-12.9</v>
       </c>
       <c r="D84" t="n">
-        <v>-7.756</v>
+        <v>-7.883000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-12.032</v>
+        <v>-12.573</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.936</v>
+        <v>-7.874000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1670,7 +1670,7 @@
         <v>-14.32</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.712000000000001</v>
+        <v>-7.937</v>
       </c>
     </row>
     <row r="89">
@@ -1681,10 +1681,10 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.198</v>
+        <v>-13.235</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.254</v>
+        <v>-8.159000000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-13.348</v>
+        <v>-12.586</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,10 +1765,10 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.944</v>
+        <v>-12.2</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.224</v>
+        <v>-7.736</v>
       </c>
     </row>
     <row r="96">
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.196</v>
+        <v>-12.959</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.988</v>
+        <v>-11.784</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1846,10 +1846,10 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.674</v>
+        <v>6.007</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.548</v>
+        <v>-12.822</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1860,10 +1860,10 @@
         <v>-20.62</v>
       </c>
       <c r="B102" t="n">
-        <v>6.266</v>
+        <v>6.449</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.056</v>
+        <v>-12.919</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-7.99</v>
+        <v>-7.681</v>
       </c>
     </row>
   </sheetData>
